--- a/data/metadata-20230129.xlsx
+++ b/data/metadata-20230129.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\innovalab\harmonize\harmonize-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Documentos\GitHub\harmonize-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7931AD23-CBB6-48B1-898B-DA63F6AE205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A300B0-8C9A-4C2C-AD14-4E439C402C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="collections" sheetId="1" r:id="rId1"/>
     <sheet name="publishers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="171">
   <si>
     <t>collection_id</t>
   </si>
@@ -510,62 +523,74 @@
     <t>access_date</t>
   </si>
   <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>2022-12-16</t>
-  </si>
-  <si>
-    <t>2022-12-23</t>
-  </si>
-  <si>
-    <t>2022-12-22</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2022-12-29</t>
-  </si>
-  <si>
-    <t>2022-12-21</t>
-  </si>
-  <si>
-    <t>2022-12-06</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2022-12-19</t>
-  </si>
-  <si>
-    <t>2022-12-28</t>
-  </si>
-  <si>
-    <t>2023-01-04</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
-  </si>
-  <si>
-    <t>2022-12-26</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
+    <t>Defunciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema Informático Nacional de Defunciones (SINADEF)</t>
+  </si>
+  <si>
+    <t>All cause-mortality reports by ICD</t>
+  </si>
+  <si>
+    <t>Healthcare center</t>
+  </si>
+  <si>
+    <t>2017-2021</t>
+  </si>
+  <si>
+    <t>SISTEMA DE INFORMACIÓN DEL ESTADO NUTRICIONAL de niños y gestantes Perú - INS/CENAN (Instituto Nacional de Salud - Centro Nacional de Alimentación y Nutrición)</t>
+  </si>
+  <si>
+    <t>Weight and Height of children ander 5</t>
+  </si>
+  <si>
+    <t>2019 - 2022</t>
+  </si>
+  <si>
+    <t>https://www.datosabiertos.gob.pe/dataset/sistema-de-informaci%C3%B3n-del-estado-nutricional-de-ni%C3%B1os-y-gestantes-per%C3%BA-inscenan-instituto</t>
+  </si>
+  <si>
+    <t>ICU beds</t>
+  </si>
+  <si>
+    <t>https://www.datosabiertos.gob.pe/dataset/data-hist%C3%B3rica-del-registro-de-camas-diarias-disponibles-y-ocupadas-del-formato-f5002-v2</t>
+  </si>
+  <si>
+    <t>Data histórica del Registro de Camas diarias disponibles y ocupadas del formato</t>
+  </si>
+  <si>
+    <t>Oficina General de Tecnologías de la Información del sector Salud</t>
+  </si>
+  <si>
+    <t>Covid-19 vaccine status</t>
+  </si>
+  <si>
+    <t>https://www.datosabiertos.gob.pe/dataset/vacunaci%C3%B3n-contra-covid-19-ministerio-de-salud-minsa</t>
+  </si>
+  <si>
+    <t>Vacunación contra COVID-19</t>
+  </si>
+  <si>
+    <t>Registro HIS/SIS de atenciones ambulatorias</t>
+  </si>
+  <si>
+    <t>Altas hospitalarias</t>
+  </si>
+  <si>
+    <t>All ambulatory care reports by ICD</t>
+  </si>
+  <si>
+    <t>All hospital discharge reports by ICD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1540A]yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -606,6 +631,18 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -641,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -652,11 +689,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,19 +1005,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="25" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" customWidth="1"/>
+    <col min="2" max="2" width="29.1328125" customWidth="1"/>
+    <col min="3" max="3" width="22.06640625" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" customWidth="1"/>
+    <col min="5" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.06640625" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
     <col min="26" max="26" width="6.6640625" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -1140,8 +1182,8 @@
       <c r="Z2">
         <v>1</v>
       </c>
-      <c r="AA2" s="10" t="s">
-        <v>151</v>
+      <c r="AA2" s="10">
+        <v>44909</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
@@ -1224,8 +1266,8 @@
       <c r="Z3">
         <v>2</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>152</v>
+      <c r="AA3" s="10">
+        <v>44918</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
@@ -1308,8 +1350,8 @@
       <c r="Z4">
         <v>3</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>153</v>
+      <c r="AA4" s="10">
+        <v>44932</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -1389,8 +1431,8 @@
       <c r="Z5">
         <v>3</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>154</v>
+      <c r="AA5" s="10">
+        <v>44931</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
@@ -1473,8 +1515,8 @@
       <c r="Z6" s="5">
         <v>4</v>
       </c>
-      <c r="AA6" s="11" t="s">
-        <v>155</v>
+      <c r="AA6" s="11">
+        <v>44936</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>134</v>
@@ -1559,8 +1601,8 @@
       <c r="Z7" s="5">
         <v>4</v>
       </c>
-      <c r="AA7" s="11" t="s">
-        <v>156</v>
+      <c r="AA7" s="11">
+        <v>44938</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>135</v>
@@ -1645,8 +1687,8 @@
       <c r="Z8" s="5">
         <v>3</v>
       </c>
-      <c r="AA8" s="11" t="s">
-        <v>157</v>
+      <c r="AA8" s="11">
+        <v>44930</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>139</v>
@@ -1663,7 +1705,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>63</v>
@@ -1725,8 +1767,8 @@
       <c r="Z9" s="5">
         <v>1</v>
       </c>
-      <c r="AA9" s="11" t="s">
-        <v>158</v>
+      <c r="AA9" s="11">
+        <v>44908</v>
       </c>
       <c r="AB9" s="9"/>
     </row>
@@ -1807,8 +1849,8 @@
       <c r="Z10" s="1">
         <v>2</v>
       </c>
-      <c r="AA10" s="10" t="s">
-        <v>159</v>
+      <c r="AA10" s="10">
+        <v>44917</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
@@ -1891,8 +1933,8 @@
       <c r="Z11">
         <v>3</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>160</v>
+      <c r="AA11" s="10">
+        <v>44929</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -1972,8 +2014,8 @@
       <c r="Z12">
         <v>3</v>
       </c>
-      <c r="AA12" s="10" t="s">
-        <v>161</v>
+      <c r="AA12" s="10">
+        <v>44928</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
@@ -2053,8 +2095,8 @@
       <c r="Z13">
         <v>4</v>
       </c>
-      <c r="AA13" s="10" t="s">
-        <v>155</v>
+      <c r="AA13" s="10">
+        <v>44936</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
@@ -2137,8 +2179,8 @@
       <c r="Z14">
         <v>4</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>162</v>
+      <c r="AA14" s="10">
+        <v>44937</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
@@ -2221,8 +2263,8 @@
       <c r="Z15">
         <v>4</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>156</v>
+      <c r="AA15" s="10">
+        <v>44938</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
@@ -2299,8 +2341,8 @@
       <c r="Z16">
         <v>5</v>
       </c>
-      <c r="AA16" s="10" t="s">
-        <v>163</v>
+      <c r="AA16" s="10">
+        <v>44944</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
@@ -2383,8 +2425,8 @@
       <c r="Z17" s="5">
         <v>5</v>
       </c>
-      <c r="AA17" s="11" t="s">
-        <v>164</v>
+      <c r="AA17" s="11">
+        <v>44946</v>
       </c>
       <c r="AB17" s="9" t="s">
         <v>146</v>
@@ -2464,10 +2506,10 @@
         <v>104</v>
       </c>
       <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="10" t="s">
-        <v>165</v>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>44918</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -2550,8 +2592,8 @@
       <c r="Z19">
         <v>3</v>
       </c>
-      <c r="AA19" s="10" t="s">
-        <v>157</v>
+      <c r="AA19" s="10">
+        <v>44930</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
@@ -2631,8 +2673,8 @@
       <c r="Z20">
         <v>4</v>
       </c>
-      <c r="AA20" s="10" t="s">
-        <v>166</v>
+      <c r="AA20" s="10">
+        <v>44935</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
@@ -2715,87 +2757,535 @@
       <c r="Z21">
         <v>5</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" s="10">
+        <v>44943</v>
+      </c>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" t="s">
+        <v>155</v>
+      </c>
+      <c r="V22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>44951</v>
+      </c>
+      <c r="AB22" s="2"/>
+    </row>
+    <row r="23" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" t="s">
+        <v>158</v>
+      </c>
+      <c r="V23" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" t="s">
+        <v>25</v>
+      </c>
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>44953</v>
+      </c>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24" t="s">
+        <v>25</v>
+      </c>
+      <c r="X24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>44950</v>
+      </c>
+      <c r="AB24" s="2"/>
+    </row>
+    <row r="25" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" t="s">
+        <v>95</v>
+      </c>
+      <c r="V25" t="s">
+        <v>25</v>
+      </c>
+      <c r="W25" t="s">
+        <v>25</v>
+      </c>
+      <c r="X25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>44958</v>
+      </c>
+      <c r="AB25" s="2"/>
+    </row>
+    <row r="26" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.25" customHeight="1">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.25" customHeight="1">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:28" ht="14.25" customHeight="1">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="1:28" ht="14.25" customHeight="1">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V26" t="s">
+        <v>25</v>
+      </c>
+      <c r="W26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>44959</v>
+      </c>
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" customHeight="1">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>154</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" t="s">
+        <v>25</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>44960</v>
+      </c>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
+      <c r="AA28" s="10"/>
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
+      <c r="AA29" s="10"/>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
+      <c r="AA30" s="10"/>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
+      <c r="AA31" s="10"/>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
+      <c r="AA32" s="10"/>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="2:28" ht="14.25" customHeight="1">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
+      <c r="AA33" s="10"/>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="2:28" ht="14.25" customHeight="1">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
+      <c r="AA34" s="10"/>
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="2:28" ht="14.25" customHeight="1">
@@ -3185,10 +3675,14 @@
     <hyperlink ref="Y16" r:id="rId11" xr:uid="{0F916D1C-3F68-41FB-827F-6755E9A36610}"/>
     <hyperlink ref="Y17" r:id="rId12" xr:uid="{A455643A-4427-4FBA-AFCA-1DE9CED1216A}"/>
     <hyperlink ref="Y20" r:id="rId13" xr:uid="{1675EE86-2E21-4269-9ED5-A21DCF357966}"/>
+    <hyperlink ref="Y22" r:id="rId14" xr:uid="{124C78DC-787F-48EF-8FF7-AE5B22870F64}"/>
+    <hyperlink ref="Y25" r:id="rId15" xr:uid="{13A6BB29-509C-4A80-8763-CAC6BCBA2B3C}"/>
+    <hyperlink ref="Y26" r:id="rId16" xr:uid="{A28D45E2-A739-491D-BE77-9AAC0252168B}"/>
+    <hyperlink ref="Y27" r:id="rId17" xr:uid="{56D236F4-A94E-48F3-A3A9-43F6E6A15BDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3198,7 +3692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="8.6640625" customWidth="1"/>
   </cols>

--- a/data/metadata-20230129.xlsx
+++ b/data/metadata-20230129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Documentos\GitHub\harmonize-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A300B0-8C9A-4C2C-AD14-4E439C402C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5DEAF-A410-48E1-8D8F-11D26988CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3863" yWindow="3240" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="collections" sheetId="1" r:id="rId1"/>
@@ -574,13 +574,13 @@
     <t>Registro HIS/SIS de atenciones ambulatorias</t>
   </si>
   <si>
-    <t>Altas hospitalarias</t>
-  </si>
-  <si>
     <t>All ambulatory care reports by ICD</t>
   </si>
   <si>
     <t>All hospital discharge reports by ICD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altas hospitalarias </t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1540A]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1540A]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -689,8 +689,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -3094,7 +3094,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
@@ -3163,7 +3163,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>163</v>
@@ -3175,7 +3175,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>

--- a/data/metadata-20230129.xlsx
+++ b/data/metadata-20230129.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\innovalab\harmonize\harmonize-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7931AD23-CBB6-48B1-898B-DA63F6AE205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D659D-8F64-4CDD-82E5-BD071598269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1164" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="collections" sheetId="1" r:id="rId1"/>
-    <sheet name="publishers" sheetId="2" r:id="rId2"/>
+    <sheet name="authors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -26,6 +26,30 @@
     <author>dDevil</author>
   </authors>
   <commentList>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{0A60FD52-6FA0-48C0-A9E8-8745F82E7D4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>dDevil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+year-month-day</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{5C0BA71C-5FAB-4211-86B8-BFAC683A745E}">
       <text>
         <r>
@@ -641,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,9 +675,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -966,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1140,7 +1168,7 @@
       <c r="Z2">
         <v>1</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="9" t="s">
         <v>151</v>
       </c>
       <c r="AB2" s="2"/>
@@ -1224,7 +1252,7 @@
       <c r="Z3">
         <v>2</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="9" t="s">
         <v>152</v>
       </c>
       <c r="AB3" s="2"/>
@@ -1308,7 +1336,7 @@
       <c r="Z4">
         <v>3</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AB4" s="2"/>
@@ -1389,7 +1417,7 @@
       <c r="Z5">
         <v>3</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="9" t="s">
         <v>154</v>
       </c>
       <c r="AB5" s="2"/>
@@ -1473,7 +1501,7 @@
       <c r="Z6" s="5">
         <v>4</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="10" t="s">
         <v>155</v>
       </c>
       <c r="AB6" s="8" t="s">
@@ -1559,7 +1587,7 @@
       <c r="Z7" s="5">
         <v>4</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="10" t="s">
         <v>156</v>
       </c>
       <c r="AB7" s="8" t="s">
@@ -1639,96 +1667,96 @@
       <c r="X8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="8" t="s">
         <v>62</v>
       </c>
       <c r="Z8" s="5">
         <v>3</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" s="10" t="s">
         <v>157</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:28" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Y9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="11">
         <v>1</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="AB9" s="9"/>
+      <c r="AB9" s="15"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" customHeight="1">
       <c r="A10">
@@ -1807,7 +1835,7 @@
       <c r="Z10" s="1">
         <v>2</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AB10" s="2"/>
@@ -1891,7 +1919,7 @@
       <c r="Z11">
         <v>3</v>
       </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AA11" s="9" t="s">
         <v>160</v>
       </c>
       <c r="AB11" s="2"/>
@@ -1972,7 +2000,7 @@
       <c r="Z12">
         <v>3</v>
       </c>
-      <c r="AA12" s="10" t="s">
+      <c r="AA12" s="9" t="s">
         <v>161</v>
       </c>
       <c r="AB12" s="2"/>
@@ -2053,7 +2081,7 @@
       <c r="Z13">
         <v>4</v>
       </c>
-      <c r="AA13" s="10" t="s">
+      <c r="AA13" s="9" t="s">
         <v>155</v>
       </c>
       <c r="AB13" s="2"/>
@@ -2137,7 +2165,7 @@
       <c r="Z14">
         <v>4</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AA14" s="9" t="s">
         <v>162</v>
       </c>
       <c r="AB14" s="2"/>
@@ -2221,7 +2249,7 @@
       <c r="Z15">
         <v>4</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AA15" s="9" t="s">
         <v>156</v>
       </c>
       <c r="AB15" s="2"/>
@@ -2299,7 +2327,7 @@
       <c r="Z16">
         <v>5</v>
       </c>
-      <c r="AA16" s="10" t="s">
+      <c r="AA16" s="9" t="s">
         <v>163</v>
       </c>
       <c r="AB16" s="2"/>
@@ -2383,10 +2411,10 @@
       <c r="Z17" s="5">
         <v>5</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AA17" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AB17" s="9" t="s">
+      <c r="AB17" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2466,7 +2494,7 @@
       <c r="Z18">
         <v>1</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" s="9" t="s">
         <v>165</v>
       </c>
       <c r="AB18" s="2"/>
@@ -2550,7 +2578,7 @@
       <c r="Z19">
         <v>3</v>
       </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" s="9" t="s">
         <v>157</v>
       </c>
       <c r="AB19" s="2"/>
@@ -2631,7 +2659,7 @@
       <c r="Z20">
         <v>4</v>
       </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="9" t="s">
         <v>166</v>
       </c>
       <c r="AB20" s="2"/>
@@ -2715,7 +2743,7 @@
       <c r="Z21">
         <v>5</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" s="9" t="s">
         <v>167</v>
       </c>
       <c r="AB21" s="2"/>
@@ -3185,10 +3213,12 @@
     <hyperlink ref="Y16" r:id="rId11" xr:uid="{0F916D1C-3F68-41FB-827F-6755E9A36610}"/>
     <hyperlink ref="Y17" r:id="rId12" xr:uid="{A455643A-4427-4FBA-AFCA-1DE9CED1216A}"/>
     <hyperlink ref="Y20" r:id="rId13" xr:uid="{1675EE86-2E21-4269-9ED5-A21DCF357966}"/>
+    <hyperlink ref="Y8" r:id="rId14" xr:uid="{96158B85-E6B0-4996-8A6B-91512DA84F74}"/>
+    <hyperlink ref="AB17" r:id="rId15" xr:uid="{710E43C3-3ACA-42A6-AE28-F3B16A4FB0BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3196,7 +3226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
